--- a/Electrical/Gripper PCB/Manufacturing Files/BOM/BOM/Bill of Materials-Gripper PCB(X1).xlsx
+++ b/Electrical/Gripper PCB/Manufacturing Files/BOM/BOM/Bill of Materials-Gripper PCB(X1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gripper-Arm\Electrical\Gripper PCB\Manufacturing Files\BOM\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{172A9E81-745D-4481-B23C-BF133687096B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCA791B-D31F-41CE-99B3-9DF211DCC599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4830" yWindow="1710" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Manufacturing" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="263">
   <si>
     <t>Source Data From:</t>
   </si>
@@ -765,6 +765,51 @@
   </si>
   <si>
     <t>BOM</t>
+  </si>
+  <si>
+    <t>1727-NXB0104PWJCT-ND</t>
+  </si>
+  <si>
+    <t>1028-1502-1-ND</t>
+  </si>
+  <si>
+    <t>AP7366-W5-7DICT-ND</t>
+  </si>
+  <si>
+    <t>296-43024-1-ND</t>
+  </si>
+  <si>
+    <t>WM1860-ND</t>
+  </si>
+  <si>
+    <t>WM1862-ND</t>
+  </si>
+  <si>
+    <t>1727-4844-1-ND</t>
+  </si>
+  <si>
+    <t>336-1160-5-ND</t>
+  </si>
+  <si>
+    <t>1965-ESP32-WROOM-32UE-N4CT-ND</t>
+  </si>
+  <si>
+    <t>MCP2515T-I/SOCT-ND</t>
+  </si>
+  <si>
+    <t>296-19416-5-ND</t>
+  </si>
+  <si>
+    <t>AP63205WU-7DICT-ND</t>
+  </si>
+  <si>
+    <t>296-17201-1-ND</t>
+  </si>
+  <si>
+    <t>296-26275-1-ND</t>
+  </si>
+  <si>
+    <t>296-26254-1-ND</t>
   </si>
 </sst>
 </file>
@@ -853,7 +898,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -887,6 +932,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,7 +1145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1202,6 +1253,27 @@
     <xf numFmtId="49" fontId="9" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1214,26 +1286,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1689,8 +1743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1738,7 +1792,7 @@
         <v>24</v>
       </c>
       <c r="E2" s="30"/>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="43" t="s">
         <v>29</v>
       </c>
       <c r="G2" s="30"/>
@@ -1758,7 +1812,7 @@
       <c r="D3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="44" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="13"/>
@@ -1777,7 +1831,7 @@
       <c r="D4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="44" t="s">
         <v>30</v>
       </c>
       <c r="F4" s="13"/>
@@ -1798,7 +1852,7 @@
       <c r="D5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="45" t="s">
         <v>31</v>
       </c>
       <c r="F5" s="13"/>
@@ -1852,20 +1906,20 @@
       <c r="C8" s="14"/>
       <c r="D8" s="13"/>
       <c r="E8" s="20"/>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="45" t="s">
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
@@ -2522,8 +2576,12 @@
       <c r="E30" s="38">
         <v>1</v>
       </c>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
+      <c r="F30" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>248</v>
+      </c>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
       <c r="J30" s="39"/>
@@ -2547,8 +2605,12 @@
       <c r="E31" s="37">
         <v>1</v>
       </c>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
+      <c r="F31" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="G31" s="33" t="s">
+        <v>249</v>
+      </c>
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
       <c r="J31" s="39"/>
@@ -2572,8 +2634,12 @@
       <c r="E32" s="38">
         <v>1</v>
       </c>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
+      <c r="F32" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>250</v>
+      </c>
       <c r="H32" s="33"/>
       <c r="I32" s="33"/>
       <c r="J32" s="39"/>
@@ -2597,8 +2663,12 @@
       <c r="E33" s="37">
         <v>1</v>
       </c>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
+      <c r="F33" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>251</v>
+      </c>
       <c r="H33" s="33"/>
       <c r="I33" s="33"/>
       <c r="J33" s="39"/>
@@ -2651,8 +2721,12 @@
       <c r="E35" s="37">
         <v>3</v>
       </c>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
+      <c r="F35" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="G35" s="33" t="s">
+        <v>252</v>
+      </c>
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
       <c r="J35" s="39"/>
@@ -2676,8 +2750,12 @@
       <c r="E36" s="38">
         <v>1</v>
       </c>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
+      <c r="F36" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="G36" s="33" t="s">
+        <v>253</v>
+      </c>
       <c r="H36" s="33"/>
       <c r="I36" s="33"/>
       <c r="J36" s="39"/>
@@ -2784,8 +2862,12 @@
       <c r="E40" s="38">
         <v>2</v>
       </c>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
+      <c r="F40" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="G40" s="33" t="s">
+        <v>254</v>
+      </c>
       <c r="H40" s="33"/>
       <c r="I40" s="33"/>
       <c r="J40" s="39"/>
@@ -3211,8 +3293,12 @@
       <c r="E55" s="37">
         <v>1</v>
       </c>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
+      <c r="F55" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="G55" s="33" t="s">
+        <v>255</v>
+      </c>
       <c r="H55" s="33"/>
       <c r="I55" s="33"/>
       <c r="J55" s="39"/>
@@ -3236,8 +3322,12 @@
       <c r="E56" s="38">
         <v>1</v>
       </c>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
+      <c r="F56" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="G56" s="33" t="s">
+        <v>256</v>
+      </c>
       <c r="H56" s="33"/>
       <c r="I56" s="33"/>
       <c r="J56" s="39"/>
@@ -3261,8 +3351,12 @@
       <c r="E57" s="37">
         <v>1</v>
       </c>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
+      <c r="F57" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="G57" s="33" t="s">
+        <v>257</v>
+      </c>
       <c r="H57" s="33"/>
       <c r="I57" s="33"/>
       <c r="J57" s="39"/>
@@ -3286,8 +3380,12 @@
       <c r="E58" s="38">
         <v>1</v>
       </c>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
+      <c r="F58" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="G58" s="54" t="s">
+        <v>258</v>
+      </c>
       <c r="H58" s="33"/>
       <c r="I58" s="33"/>
       <c r="J58" s="39"/>
@@ -3311,8 +3409,12 @@
       <c r="E59" s="37">
         <v>1</v>
       </c>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
+      <c r="F59" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="G59" s="33" t="s">
+        <v>259</v>
+      </c>
       <c r="H59" s="33"/>
       <c r="I59" s="33"/>
       <c r="J59" s="39"/>
@@ -3336,8 +3438,12 @@
       <c r="E60" s="38">
         <v>1</v>
       </c>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
+      <c r="F60" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="G60" s="33" t="s">
+        <v>260</v>
+      </c>
       <c r="H60" s="33"/>
       <c r="I60" s="33"/>
       <c r="J60" s="39"/>
@@ -3361,8 +3467,12 @@
       <c r="E61" s="37">
         <v>1</v>
       </c>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
+      <c r="F61" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="G61" s="33" t="s">
+        <v>261</v>
+      </c>
       <c r="H61" s="33"/>
       <c r="I61" s="33"/>
       <c r="J61" s="39"/>
@@ -3386,8 +3496,12 @@
       <c r="E62" s="38">
         <v>1</v>
       </c>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
+      <c r="F62" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="G62" s="33" t="s">
+        <v>262</v>
+      </c>
       <c r="H62" s="33"/>
       <c r="I62" s="33"/>
       <c r="J62" s="39"/>
@@ -3509,7 +3623,7 @@
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="46" t="s">
         <v>240</v>
       </c>
     </row>
@@ -3517,7 +3631,7 @@
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="47" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3525,7 +3639,7 @@
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="48" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3533,7 +3647,7 @@
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="47" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3541,7 +3655,7 @@
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="48" t="s">
         <v>240</v>
       </c>
     </row>
@@ -3549,7 +3663,7 @@
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="47" t="s">
         <v>241</v>
       </c>
     </row>
@@ -3557,7 +3671,7 @@
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="48" t="s">
         <v>242</v>
       </c>
     </row>
@@ -3565,7 +3679,7 @@
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="47" t="s">
         <v>243</v>
       </c>
     </row>
@@ -3573,7 +3687,7 @@
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="48" t="s">
         <v>244</v>
       </c>
     </row>
@@ -3581,7 +3695,7 @@
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="47" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3589,7 +3703,7 @@
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="48" t="s">
         <v>245</v>
       </c>
     </row>
@@ -3597,7 +3711,7 @@
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="47" t="s">
         <v>246</v>
       </c>
     </row>
@@ -3605,7 +3719,7 @@
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="48" t="s">
         <v>247</v>
       </c>
     </row>
@@ -3613,7 +3727,7 @@
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="49" t="s">
         <v>245</v>
       </c>
     </row>
